--- a/Com.HybridFrameworkERP/ErpData.xlsx
+++ b/Com.HybridFrameworkERP/ErpData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Kiran@gmail.com</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Branch</t>
   </si>
   <si>
-    <t>ContectName</t>
-  </si>
-  <si>
     <t>Deepa123</t>
   </si>
   <si>
@@ -61,6 +58,30 @@
   </si>
   <si>
     <t>pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ajay </t>
+  </si>
+  <si>
+    <t>puneMH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cust001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">123, MG Road </t>
+  </si>
+  <si>
+    <t>ContectNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cust002  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">789, Civil Lines </t>
   </si>
 </sst>
 </file>
@@ -105,10 +126,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -462,17 +486,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -490,21 +515,21 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>1234567890</v>
@@ -512,23 +537,58 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>456789123</v>
       </c>
     </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3216549870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>789123456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
